--- a/dist/data/profiles/xlsx/bluff/profile 21-4 graph.xlsx
+++ b/dist/data/profiles/xlsx/bluff/profile 21-4 graph.xlsx
@@ -2055,11 +2055,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="86904388"/>
-        <c:axId val="94270006"/>
+        <c:axId val="6670560"/>
+        <c:axId val="93494833"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="86904388"/>
+        <c:axId val="6670560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2094,12 +2094,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="94270006"/>
+        <c:crossAx val="93494833"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="94270006"/>
+        <c:axId val="93494833"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2143,7 +2143,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="86904388"/>
+        <c:crossAx val="6670560"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
